--- a/Data/RedMattis/Big and Small - Heaven and Hell - 3170117364/Big and Small - Heaven and Hell - 3170117364.xlsx
+++ b/Data/RedMattis/Big and Small - Heaven and Hell - 3170117364/Big and Small - Heaven and Hell - 3170117364.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zilrt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Big and Small - Heaven and Hell - 3170117364\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206A6965-50A9-417F-82F2-463CE9F62580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403AF101-6F19-45A8-A1F1-6B54468DECAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="7200" windowWidth="28725" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2024-04-19_삭제된 노드 목록" sheetId="2" r:id="rId2"/>
+    <sheet name="2024-05-25_삭제된 노드 목록" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -26,20 +27,7 @@
     <author>Lammergeier</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-19 이전의 원문: '[PAWN_nameDef] was doing middle-management within the divine hierarchy.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,8 +44,31 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lammergeier</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-19 이전의 원문: '[PAWN_nameDef] was doing middle-management within the divine hierarchy.'</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="350">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -89,30 +100,30 @@
     <t>unnatural</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>언내추럴</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BackstoryDef+BS_Unnatural.titleShort</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>언내추럴</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Unnatural.titleShort</t>
   </si>
   <si>
+    <t>BackstoryDef+BS_Unnatural.baseDesc</t>
+  </si>
+  <si>
     <t>BS_Unnatural.baseDesc</t>
   </si>
   <si>
-    <t>BackstoryDef+BS_Unnatural.baseDesc</t>
-  </si>
-  <si>
     <t>[PAWN_nameDef] was created by mysterious forces.</t>
   </si>
   <si>
@@ -128,78 +139,102 @@
     <t>heavenly servitor</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>천상의 종</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BackstoryDef+BS_HeavenServitor.titleShort</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>천상의 종</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_HeavenServitor.titleShort</t>
   </si>
   <si>
     <t>servitor</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>종</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BackstoryDef+BS_HeavenServitor.baseDesc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>종</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_HeavenServitor.baseDesc</t>
   </si>
   <si>
     <t>BackstoryDef+BS_HeavenWarrior.title</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>[PAWN_nameDef] was doing middle-management within the divine hierarchy, with a side of smiting.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>[PAWN_nameDef](은)는 신성 서열 내에서 중간 관리를 하고 있었으며, 벌을 내리기도 했습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BS_HeavenWarrior.title</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>heavenly warrior</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>천상의 전사</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BackstoryDef+BS_HeavenWarrior.titleShort</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>heavenly warrior</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>천상의 전사</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_HeavenWarrior.titleShort</t>
   </si>
   <si>
@@ -230,30 +265,30 @@
     <t>adversary</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>대적자</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BackstoryDef+BS_Satan.titleShort</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>대적자</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Satan.titleShort</t>
   </si>
   <si>
+    <t>BackstoryDef+BS_Satan.baseDesc</t>
+  </si>
+  <si>
     <t>BS_Satan.baseDesc</t>
   </si>
   <si>
-    <t>BackstoryDef+BS_Satan.baseDesc</t>
-  </si>
-  <si>
     <t>[PAWN_nameDef]'s main duty was to test the faithful and judge the guilty.</t>
   </si>
   <si>
@@ -272,51 +307,51 @@
     <t>Divine Realm</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>디바인 렐름</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Heaven.fixedName</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>디바인 렐름</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Heaven.fixedName</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kingdom of Heaven</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하늘의 왕국</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Heaven.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kingdom of Heaven</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>하늘의 왕국</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Heaven.description</t>
   </si>
   <si>
@@ -335,42 +370,42 @@
     <t>messenger</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메신저</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Heaven.pawnsPlural</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>메신저</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Heaven.pawnsPlural</t>
   </si>
   <si>
     <t>messengers</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메신저들</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Heaven.leaderTitle</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>메신저들</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Heaven.leaderTitle</t>
   </si>
   <si>
@@ -389,21 +424,21 @@
     <t>The Infernal Realm</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>인페르날 렐름</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Hell.fixedName</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>인페르날 렐름</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Hell.fixedName</t>
   </si>
   <si>
@@ -422,21 +457,21 @@
     <t>Lord</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>군주</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Hell.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>군주</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Hell.description</t>
   </si>
   <si>
@@ -455,84 +490,84 @@
     <t>demon</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>악마</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Hell.pawnsPlural</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>악마</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Hell.pawnsPlural</t>
   </si>
   <si>
     <t>demons</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>악마들</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Outcasts.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>악마들</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Outcasts.label</t>
   </si>
   <si>
     <t>Extraplanar Outcasts</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>외계 추방자</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Outcasts.fixedName</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>외계 추방자</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Outcasts.fixedName</t>
   </si>
   <si>
     <t>Independents</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>독립자</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Outcasts.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>독립자</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Outcasts.description</t>
   </si>
   <si>
@@ -563,42 +598,42 @@
     <t>outcasts</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>추방자들</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionDef+BS_Outcasts.leaderTitle</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>추방자들</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Outcasts.leaderTitle</t>
   </si>
   <si>
     <t>leader</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지도자</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeneDef+BS_AngelHalo.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>지도자</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GeneDef</t>
   </si>
   <si>
@@ -704,27 +739,51 @@
     <t>fertile</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>다산</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeneDef+BS_GrigoriFertile.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>다산</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_GrigoriFertile.description</t>
   </si>
   <si>
     <t>PawnKindDef+BS_ServitorBasic.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Carriers of this gene have a higher chance of becoming pregnant or impregnating others...\n\nThere is something wrong with this gene. Best be careful.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 유전자의 보유자는 임신하거나 다른 사람을 임신시킬 확률이 더 높습니다...\n\n이 유전자에 문제가 있습니다. 조심해야 합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PawnKindDef</t>
   </si>
   <si>
@@ -812,21 +871,21 @@
     <t>great authority</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>위대한 권능</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PawnKindDef+BS_Metatron.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>위대한 권능</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Metatron.label</t>
   </si>
   <si>
@@ -851,63 +910,63 @@
     <t>demon of gluttony</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>식탐의 악마</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PawnKindDef+BS_SmallGlutton.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>식탐의 악마</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_SmallGlutton.label</t>
   </si>
   <si>
     <t>lesser demon of gluttony</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>작은 식탐의 악마</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PawnKindDef+VU_LilimWarrior.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>작은 식탐의 악마</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VU_LilimWarrior.label</t>
   </si>
   <si>
     <t>hellguard</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>헬가드</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_Authority.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>헬가드</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>XenotypeDef</t>
   </si>
   <si>
@@ -917,21 +976,21 @@
     <t>authority</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>권능</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_Authority.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>권능</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Authority.description</t>
   </si>
   <si>
@@ -962,21 +1021,21 @@
     <t>Malakim</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>말라킴</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_Malakim.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>말라킴</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Malakim.description</t>
   </si>
   <si>
@@ -1004,21 +1063,21 @@
     <t>Satan</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사탄</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_Satan.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>사탄</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Satan.description</t>
   </si>
   <si>
@@ -1085,42 +1144,42 @@
     <t>Glutton</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>글루톤</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_Glutton.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>글루톤</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Glutton.description</t>
   </si>
   <si>
     <t>Gluttons are terrifying demons covered in teeth and mouths. They cannot even stop themselves from feasting on their foes in the midst of battle.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>글루톤은 이빨과 입으로 뒤덮인 무시무시한 악마입니다. 전투 중에도 적을 잡아먹는 것을 멈추지 못합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_Glutton.descriptionShort</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>글루톤은 이빨과 입으로 뒤덮인 무시무시한 악마입니다. 전투 중에도 적을 잡아먹는 것을 멈추지 못합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Glutton.descriptionShort</t>
   </si>
   <si>
@@ -1139,84 +1198,84 @@
     <t>Lil' Glutton</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>작은 글루톤</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_LilGlutton.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>작은 글루톤</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_LilGlutton.description</t>
   </si>
   <si>
     <t>Lil' gluttons appear to be smaller version of gluttons. They possess the same voracious appetite as their larger kin.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>작은 글루톤은 글루톤의 작은 버전으로 보입니다. 이들도 덩치가 큰 종족과 마찬가지로 탐욕스러운 식욕을 가지고 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_Nephilim.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>작은 글루톤은 글루톤의 작은 버전으로 보입니다. 이들도 덩치가 큰 종족과 마찬가지로 탐욕스러운 식욕을 가지고 있습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Nephilim.label</t>
   </si>
   <si>
     <t>Nephilim</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>네피림</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_Nephilim.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>네피림</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Nephilim.description</t>
   </si>
   <si>
     <t>Nephilim are said to be grotesquely enormus offspring of a Grigori and a human. Angels describe them as a most unnatural, foul, cannibalistic monstrosity in the shape of a mankin.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>네피림은 그리고리와 인간이 낳은 기괴하고 거대한 자손으로 알려져 있습니다. 천사들은 네피림을 인간을 닮은 가장 부자연스럽고 더러운 식인 괴물이라고 묘사합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_Nephilim.descriptionShort</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>네피림은 그리고리와 인간이 낳은 기괴하고 거대한 자손으로 알려져 있습니다. 천사들은 네피림을 인간을 닮은 가장 부자연스럽고 더러운 식인 괴물이라고 묘사합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Nephilim.descriptionShort</t>
   </si>
   <si>
@@ -1235,21 +1294,21 @@
     <t>Lilim</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>릴림</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>XenotypeDef+BS_Lilim.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>릴림</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BS_Lilim.description</t>
   </si>
   <si>
@@ -1289,21 +1348,21 @@
     <t>Succubus</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>서큐버스</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VU_Succubus.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>서큐버스</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Succubus/Incubus are said to be demons that seduce their victims and prey upon them and the victim's friends and family.</t>
   </si>
   <si>
@@ -1316,12 +1375,12 @@
     <t>Hellguard</t>
   </si>
   <si>
+    <t>VU_Hellguard.description</t>
+  </si>
+  <si>
     <t>These large creatures are the backbone of the hells' armies and their industry</t>
   </si>
   <si>
-    <t>VU_Hellguard.description</t>
-  </si>
-  <si>
     <t>이 거대한 생명체는 지옥의 군대와 산업의 중추입니다.</t>
   </si>
   <si>
@@ -1331,21 +1390,21 @@
     <t>Gatekeeper</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>게이트키퍼</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VU_Gatekeeper.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>게이트키퍼</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>These lumbering creatures are often found guarding important sites.</t>
   </si>
   <si>
@@ -1358,21 +1417,21 @@
     <t>Imp</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>임프</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VU_Imp.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>임프</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>These little theives are often in all sorts of strange places. They are especially know for stealing technological gadgets.</t>
   </si>
   <si>
@@ -1388,89 +1447,73 @@
     <t>pest</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>페스트</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PawnKindDef+VU_DemonWarrior.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>페스트</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VU_DemonWarrior.label</t>
   </si>
   <si>
+    <t>PawnKindDef+VU_DemonCommander.label</t>
+  </si>
+  <si>
     <t>VU_DemonCommander.label</t>
   </si>
   <si>
-    <t>PawnKindDef+VU_DemonCommander.label</t>
-  </si>
-  <si>
     <t>commander</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>커맨더</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PawnKindDef+VU_DemonCommander_Suc.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>커맨더</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VU_DemonCommander_Suc.label</t>
   </si>
   <si>
     <t>noble</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>노블</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PawnKindDef+VU_DemonBrute.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>노블</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VU_DemonBrute.label</t>
   </si>
   <si>
     <t>gatekeeper</t>
-  </si>
-  <si>
-    <t>Carriers of this gene have a higher chance of becoming pregnant or impregnating others...\n\nThere is something wrong with this gene. Best be careful.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 유전자의 보유자는 임신하거나 다른 사람을 임신시킬 확률이 더 높습니다...\n\n이 유전자에 문제가 있습니다. 조심해야 합니다.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] was doing middle-management within the divine hierarchy, with a side of smiting.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 신성 서열 내에서 중간 관리를 하고 있었으며, 벌을 내리기도 했습니다.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>BS_Unnatural.description</t>
@@ -1843,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E99" sqref="E99 E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1895,12 +1938,12 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1912,1535 +1955,1467 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>345</v>
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>343</v>
+        <v>175</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>344</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="B75" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="B76" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="B77" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="B78" s="1" t="s">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>210</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="B83" s="1" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="B84" s="1" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>318</v>
+        <v>212</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>319</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="B85" s="1" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="B89" s="1" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>334</v>
+        <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="B90" s="1" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>338</v>
+        <v>28</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>340</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="B91" s="1" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>342</v>
+        <v>39</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>48</v>
+      <c r="C92" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3482,4 +3457,118 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>